--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Amh-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Amh-Egfr.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.204164</v>
+        <v>0.07899133333333333</v>
       </c>
       <c r="H2">
-        <v>0.612492</v>
+        <v>0.236974</v>
       </c>
       <c r="I2">
-        <v>0.351141252641835</v>
+        <v>0.08952820636815619</v>
       </c>
       <c r="J2">
-        <v>0.3785771371035782</v>
+        <v>0.09988914039546951</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N2">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O2">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P2">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q2">
-        <v>0.2472543094026667</v>
+        <v>0.05211956128155555</v>
       </c>
       <c r="R2">
-        <v>2.225288784624</v>
+        <v>0.469076051534</v>
       </c>
       <c r="S2">
-        <v>0.005177980056748669</v>
+        <v>0.0006897911369715111</v>
       </c>
       <c r="T2">
-        <v>0.00605085348184758</v>
+        <v>0.0008475272438890792</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.204164</v>
+        <v>0.07899133333333333</v>
       </c>
       <c r="H3">
-        <v>0.612492</v>
+        <v>0.236974</v>
       </c>
       <c r="I3">
-        <v>0.351141252641835</v>
+        <v>0.08952820636815619</v>
       </c>
       <c r="J3">
-        <v>0.3785771371035782</v>
+        <v>0.09988914039546951</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P3">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q3">
-        <v>12.46628637013067</v>
+        <v>4.823223399285777</v>
       </c>
       <c r="R3">
-        <v>112.196577331176</v>
+        <v>43.409010593572</v>
       </c>
       <c r="S3">
-        <v>0.2610679763770304</v>
+        <v>0.06383431998761513</v>
       </c>
       <c r="T3">
-        <v>0.3050772804350589</v>
+        <v>0.07843145900970229</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>21</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.07899133333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.236974</v>
+      </c>
+      <c r="I4">
+        <v>0.08952820636815619</v>
+      </c>
+      <c r="J4">
+        <v>0.09988914039546951</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.204164</v>
-      </c>
-      <c r="H4">
-        <v>0.612492</v>
-      </c>
-      <c r="I4">
-        <v>0.351141252641835</v>
-      </c>
-      <c r="J4">
-        <v>0.3785771371035782</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N4">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O4">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P4">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q4">
-        <v>0.027006405592</v>
+        <v>0.01235018964488889</v>
       </c>
       <c r="R4">
-        <v>0.243057650328</v>
+        <v>0.111151706804</v>
       </c>
       <c r="S4">
-        <v>0.0005655659951799147</v>
+        <v>0.0001634520926018706</v>
       </c>
       <c r="T4">
-        <v>0.0006609057844262541</v>
+        <v>0.000200829054080014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.204164</v>
+        <v>0.07899133333333333</v>
       </c>
       <c r="H5">
-        <v>0.612492</v>
+        <v>0.236974</v>
       </c>
       <c r="I5">
-        <v>0.351141252641835</v>
+        <v>0.08952820636815619</v>
       </c>
       <c r="J5">
-        <v>0.3785771371035782</v>
+        <v>0.09988914039546951</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N5">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O5">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P5">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q5">
-        <v>3.893086125864</v>
+        <v>1.865485355644333</v>
       </c>
       <c r="R5">
-        <v>23.358516755184</v>
+        <v>11.192912133866</v>
       </c>
       <c r="S5">
-        <v>0.08152869961145889</v>
+        <v>0.02468929578133247</v>
       </c>
       <c r="T5">
-        <v>0.06351488553553364</v>
+        <v>0.02022336877119485</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>23</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.07899133333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.236974</v>
+      </c>
+      <c r="I6">
+        <v>0.08952820636815619</v>
+      </c>
+      <c r="J6">
+        <v>0.09988914039546951</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.204164</v>
-      </c>
-      <c r="H6">
-        <v>0.612492</v>
-      </c>
-      <c r="I6">
-        <v>0.351141252641835</v>
-      </c>
-      <c r="J6">
-        <v>0.3785771371035782</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N6">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O6">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P6">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q6">
-        <v>0.133752328008</v>
+        <v>0.01143557532666667</v>
       </c>
       <c r="R6">
-        <v>1.203770952072</v>
+        <v>0.10292017794</v>
       </c>
       <c r="S6">
-        <v>0.002801030601417137</v>
+        <v>0.0001513473696352137</v>
       </c>
       <c r="T6">
-        <v>0.003273211866711747</v>
+        <v>0.0001859563166032562</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2050716666666667</v>
+        <v>0.296947</v>
       </c>
       <c r="H7">
-        <v>0.615215</v>
+        <v>0.890841</v>
       </c>
       <c r="I7">
-        <v>0.3527023467148085</v>
+        <v>0.336557583908845</v>
       </c>
       <c r="J7">
-        <v>0.3802602048731703</v>
+        <v>0.3755067717093034</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N7">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O7">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P7">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q7">
-        <v>0.2483535457755555</v>
+        <v>0.1959296888756667</v>
       </c>
       <c r="R7">
-        <v>2.23518191198</v>
+        <v>1.763367199881</v>
       </c>
       <c r="S7">
-        <v>0.005201000177329062</v>
+        <v>0.002593087116100661</v>
       </c>
       <c r="T7">
-        <v>0.006077754198968898</v>
+        <v>0.003186054240015323</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2050716666666667</v>
+        <v>0.296947</v>
       </c>
       <c r="H8">
-        <v>0.615215</v>
+        <v>0.890841</v>
       </c>
       <c r="I8">
-        <v>0.3527023467148085</v>
+        <v>0.336557583908845</v>
       </c>
       <c r="J8">
-        <v>0.3802602048731703</v>
+        <v>0.3755067717093034</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P8">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q8">
-        <v>12.52170864141889</v>
+        <v>18.13163113355533</v>
       </c>
       <c r="R8">
-        <v>112.69537777277</v>
+        <v>163.184680201998</v>
       </c>
       <c r="S8">
-        <v>0.2622286251686466</v>
+        <v>0.2399682220500437</v>
       </c>
       <c r="T8">
-        <v>0.3064335845739287</v>
+        <v>0.2948423007404281</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2050716666666667</v>
+        <v>0.296947</v>
       </c>
       <c r="H9">
-        <v>0.615215</v>
+        <v>0.890841</v>
       </c>
       <c r="I9">
-        <v>0.3527023467148085</v>
+        <v>0.336557583908845</v>
       </c>
       <c r="J9">
-        <v>0.3802602048731703</v>
+        <v>0.3755067717093034</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N9">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O9">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P9">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q9">
-        <v>0.02712646992333333</v>
+        <v>0.04642726752066667</v>
       </c>
       <c r="R9">
-        <v>0.24413822931</v>
+        <v>0.417845407686</v>
       </c>
       <c r="S9">
-        <v>0.0005680803728450513</v>
+        <v>0.000614454858446678</v>
       </c>
       <c r="T9">
-        <v>0.0006638440210905577</v>
+        <v>0.0007549636473439862</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2050716666666667</v>
+        <v>0.296947</v>
       </c>
       <c r="H10">
-        <v>0.615215</v>
+        <v>0.890841</v>
       </c>
       <c r="I10">
-        <v>0.3527023467148085</v>
+        <v>0.336557583908845</v>
       </c>
       <c r="J10">
-        <v>0.3802602048731703</v>
+        <v>0.3755067717093034</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N10">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O10">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P10">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q10">
-        <v>3.910393900529999</v>
+        <v>7.0127981960365</v>
       </c>
       <c r="R10">
-        <v>23.46236340318</v>
+        <v>42.07678917621899</v>
       </c>
       <c r="S10">
-        <v>0.08189115765016307</v>
+        <v>0.09281286952635311</v>
       </c>
       <c r="T10">
-        <v>0.06379725825764797</v>
+        <v>0.07602439955227154</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.2050716666666667</v>
+        <v>0.296947</v>
       </c>
       <c r="H11">
-        <v>0.615215</v>
+        <v>0.890841</v>
       </c>
       <c r="I11">
-        <v>0.3527023467148085</v>
+        <v>0.336557583908845</v>
       </c>
       <c r="J11">
-        <v>0.3802602048731703</v>
+        <v>0.3755067717093034</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N11">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O11">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P11">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q11">
-        <v>0.13434696041</v>
+        <v>0.04298901719000001</v>
       </c>
       <c r="R11">
-        <v>1.20912264369</v>
+        <v>0.38690115471</v>
       </c>
       <c r="S11">
-        <v>0.00281348334582467</v>
+        <v>0.0005689503579008812</v>
       </c>
       <c r="T11">
-        <v>0.003287763821534105</v>
+        <v>0.0006990535292443954</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.1264105</v>
+        <v>0.27455</v>
       </c>
       <c r="H12">
-        <v>0.252821</v>
+        <v>0.5491</v>
       </c>
       <c r="I12">
-        <v>0.2174131645005029</v>
+        <v>0.3111729859610415</v>
       </c>
       <c r="J12">
-        <v>0.1562669396166215</v>
+        <v>0.2314563074056745</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N12">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O12">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P12">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q12">
-        <v>0.1530903630353334</v>
+        <v>0.1811518421833333</v>
       </c>
       <c r="R12">
-        <v>0.9185421782120001</v>
+        <v>1.0869110531</v>
       </c>
       <c r="S12">
-        <v>0.003206006190923119</v>
+        <v>0.002397505506792244</v>
       </c>
       <c r="T12">
-        <v>0.002497637239562618</v>
+        <v>0.001963832359750409</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.1264105</v>
+        <v>0.27455</v>
       </c>
       <c r="H13">
-        <v>0.252821</v>
+        <v>0.5491</v>
       </c>
       <c r="I13">
-        <v>0.2174131645005029</v>
+        <v>0.3111729859610415</v>
       </c>
       <c r="J13">
-        <v>0.1562669396166215</v>
+        <v>0.2314563074056745</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>183.180478</v>
       </c>
       <c r="O13">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P13">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q13">
-        <v>7.718645271406333</v>
+        <v>16.76406674496667</v>
       </c>
       <c r="R13">
-        <v>46.311871628438</v>
+        <v>100.5844004698</v>
       </c>
       <c r="S13">
-        <v>0.1616432545787141</v>
+        <v>0.221868802728566</v>
       </c>
       <c r="T13">
-        <v>0.1259280825167872</v>
+        <v>0.1817360307131902</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.1264105</v>
+        <v>0.27455</v>
       </c>
       <c r="H14">
-        <v>0.252821</v>
+        <v>0.5491</v>
       </c>
       <c r="I14">
-        <v>0.2174131645005029</v>
+        <v>0.3111729859610415</v>
       </c>
       <c r="J14">
-        <v>0.1562669396166215</v>
+        <v>0.2314563074056745</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N14">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O14">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P14">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q14">
-        <v>0.016721328119</v>
+        <v>0.04292552643333333</v>
       </c>
       <c r="R14">
-        <v>0.100327968714</v>
+        <v>0.2575531586</v>
       </c>
       <c r="S14">
-        <v>0.0003501767218201574</v>
+        <v>0.0005681100714488964</v>
       </c>
       <c r="T14">
-        <v>0.0002728049694109148</v>
+        <v>0.0004653473950531945</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.1264105</v>
+        <v>0.27455</v>
       </c>
       <c r="H15">
-        <v>0.252821</v>
+        <v>0.5491</v>
       </c>
       <c r="I15">
-        <v>0.2174131645005029</v>
+        <v>0.3111729859610415</v>
       </c>
       <c r="J15">
-        <v>0.1562669396166215</v>
+        <v>0.2314563074056745</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N15">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O15">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P15">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q15">
-        <v>2.410449264873</v>
+        <v>6.483863264225</v>
       </c>
       <c r="R15">
-        <v>9.641797059491999</v>
+        <v>25.9354530569</v>
       </c>
       <c r="S15">
-        <v>0.05047943654235969</v>
+        <v>0.08581252994123613</v>
       </c>
       <c r="T15">
-        <v>0.02621731692165637</v>
+        <v>0.04686021163614192</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.1264105</v>
+        <v>0.27455</v>
       </c>
       <c r="H16">
-        <v>0.252821</v>
+        <v>0.5491</v>
       </c>
       <c r="I16">
-        <v>0.2174131645005029</v>
+        <v>0.3111729859610415</v>
       </c>
       <c r="J16">
-        <v>0.1562669396166215</v>
+        <v>0.2314563074056745</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N16">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O16">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P16">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q16">
-        <v>0.08281429958100001</v>
+        <v>0.03974660350000001</v>
       </c>
       <c r="R16">
-        <v>0.496885797486</v>
+        <v>0.238479621</v>
       </c>
       <c r="S16">
-        <v>0.001734290466685806</v>
+        <v>0.0005260377129982351</v>
       </c>
       <c r="T16">
-        <v>0.001351097969204383</v>
+        <v>0.0004308853015387679</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.04578366666666667</v>
+        <v>0.2318183333333333</v>
       </c>
       <c r="H17">
-        <v>0.137351</v>
+        <v>0.695455</v>
       </c>
       <c r="I17">
-        <v>0.07874323614285358</v>
+        <v>0.2627412237619573</v>
       </c>
       <c r="J17">
-        <v>0.08489571840662991</v>
+        <v>0.2931477804895526</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N17">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O17">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P17">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q17">
-        <v>0.05544664526355556</v>
+        <v>0.1529569045172222</v>
       </c>
       <c r="R17">
-        <v>0.499019807372</v>
+        <v>1.376612140655</v>
       </c>
       <c r="S17">
-        <v>0.001161159229466648</v>
+        <v>0.002024351596219511</v>
       </c>
       <c r="T17">
-        <v>0.001356900623330994</v>
+        <v>0.002487264676288874</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.04578366666666667</v>
+        <v>0.2318183333333333</v>
       </c>
       <c r="H18">
-        <v>0.137351</v>
+        <v>0.695455</v>
       </c>
       <c r="I18">
-        <v>0.07874323614285358</v>
+        <v>0.2627412237619573</v>
       </c>
       <c r="J18">
-        <v>0.08489571840662991</v>
+        <v>0.2931477804895526</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>183.180478</v>
       </c>
       <c r="O18">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P18">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q18">
-        <v>2.795557981530889</v>
+        <v>14.15486436972111</v>
       </c>
       <c r="R18">
-        <v>25.160021833778</v>
+        <v>127.39377932749</v>
       </c>
       <c r="S18">
-        <v>0.05854435261744071</v>
+        <v>0.1873365728180597</v>
       </c>
       <c r="T18">
-        <v>0.0684134152691558</v>
+        <v>0.2301752526673496</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.04578366666666667</v>
+        <v>0.2318183333333333</v>
       </c>
       <c r="H19">
-        <v>0.137351</v>
+        <v>0.695455</v>
       </c>
       <c r="I19">
-        <v>0.07874323614285358</v>
+        <v>0.2627412237619573</v>
       </c>
       <c r="J19">
-        <v>0.08489571840662991</v>
+        <v>0.2931477804895526</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N19">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O19">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P19">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q19">
-        <v>0.006056171859333334</v>
+        <v>0.03624448732555556</v>
       </c>
       <c r="R19">
-        <v>0.054505546734</v>
+        <v>0.32620038593</v>
       </c>
       <c r="S19">
-        <v>0.0001268278687786232</v>
+        <v>0.000479687961803548</v>
       </c>
       <c r="T19">
-        <v>0.0001482077649940414</v>
+        <v>0.0005893792981728636</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.04578366666666667</v>
+        <v>0.2318183333333333</v>
       </c>
       <c r="H20">
-        <v>0.137351</v>
+        <v>0.695455</v>
       </c>
       <c r="I20">
-        <v>0.07874323614285358</v>
+        <v>0.2627412237619573</v>
       </c>
       <c r="J20">
-        <v>0.08489571840662991</v>
+        <v>0.2931477804895526</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N20">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O20">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P20">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q20">
-        <v>0.873022459842</v>
+        <v>5.474698144140834</v>
       </c>
       <c r="R20">
-        <v>5.238134759052</v>
+        <v>32.848188864845</v>
       </c>
       <c r="S20">
-        <v>0.01828276682851938</v>
+        <v>0.07245644753266846</v>
       </c>
       <c r="T20">
-        <v>0.01424317875693247</v>
+        <v>0.05935015203681129</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.04578366666666667</v>
+        <v>0.2318183333333333</v>
       </c>
       <c r="H21">
-        <v>0.137351</v>
+        <v>0.695455</v>
       </c>
       <c r="I21">
-        <v>0.07874323614285358</v>
+        <v>0.2627412237619573</v>
       </c>
       <c r="J21">
-        <v>0.08489571840662991</v>
+        <v>0.2931477804895526</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N21">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O21">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P21">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q21">
-        <v>0.029993887274</v>
+        <v>0.03356034011666667</v>
       </c>
       <c r="R21">
-        <v>0.269944985466</v>
+        <v>0.3020430610500001</v>
       </c>
       <c r="S21">
-        <v>0.0006281295986482194</v>
+        <v>0.0004441638532060798</v>
       </c>
       <c r="T21">
-        <v>0.0007340159922165925</v>
+        <v>0.000545731810929965</v>
       </c>
     </row>
   </sheetData>
